--- a/model/Output Files/Year 4.xlsx
+++ b/model/Output Files/Year 4.xlsx
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2.884000000000015</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,51 +1175,6 @@
           <t>Retired Capacity</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Retired Capacity')</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1231,37 +1186,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>104</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>151</v>
-      </c>
-      <c r="L2" t="n">
-        <v>162</v>
-      </c>
-      <c r="M2" t="n">
-        <v>152</v>
       </c>
     </row>
     <row r="3">
@@ -1274,37 +1202,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>400</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>104</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>151</v>
-      </c>
-      <c r="L3" t="n">
-        <v>162</v>
-      </c>
-      <c r="M3" t="n">
-        <v>152</v>
       </c>
     </row>
     <row r="4">
@@ -1314,39 +1215,12 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>400</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>104</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>151</v>
-      </c>
-      <c r="L4" t="n">
-        <v>162</v>
-      </c>
-      <c r="M4" t="n">
         <v>152</v>
       </c>
     </row>
@@ -1529,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>40.0363636363636</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1612,37 +1486,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>50.05311702887462</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1698,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>39.98312417100296</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1853,40 +1727,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27.0363636363636</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>70.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>18.2</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1936,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>50.05311702887462</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -1963,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2022,25 +1896,25 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>39.98312417100296</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>59.8</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2165,16 +2039,16 @@
         <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>32.5</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>32.5</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2213,25 +2087,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>28.31599999999998</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2239,23 +2113,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
         <v>19.5</v>
       </c>
       <c r="D3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>19.5</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -2290,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2302,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2316,10 +2190,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2331,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2370,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2385,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2489,73 +2363,73 @@
         <v>188.6909090909091</v>
       </c>
       <c r="C2" t="n">
-        <v>182.1252525252525</v>
+        <v>168.9939393939394</v>
       </c>
       <c r="D2" t="n">
-        <v>168.9939393939394</v>
+        <v>155.8626262626263</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>142.7313131313131</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>142.47</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>169.236</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>189.828</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>212.994</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>259.326</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>321.102</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>390.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>467.82</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>529.596</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>583.65</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>629.982</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>637.4949494949495</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>608.8929292929294</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>490.7111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>392.2262626262627</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>313.4383838383839</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>260.9131313131313</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>221.5191919191919</v>
       </c>
     </row>
     <row r="3">
@@ -2563,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>168.9939393939394</v>
+        <v>182.1252525252525</v>
       </c>
       <c r="C3" t="n">
         <v>162.4282828282828</v>
@@ -2572,67 +2446,67 @@
         <v>149.2969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>170.784</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>232.56</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>232.56</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>325.224</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>405.018</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>405.018</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>454.5705858585859</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>454.5705858585859</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>454.5705858585859</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>485.4585858585859</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>464.4484848484849</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>333.1353535353535</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>333.1353535353535</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>333.1353535353535</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>254.3474747474747</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>254.3474747474747</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>214.9535353535353</v>
       </c>
     </row>
     <row r="4">
@@ -2640,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>155.8626262626263</v>
+        <v>168.9939393939394</v>
       </c>
       <c r="C4" t="n">
         <v>149.2969696969697</v>
@@ -2649,67 +2523,67 @@
         <v>149.2969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>149.2969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>129.6</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>169.1832929292929</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>228.3852929292929</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>228.3852929292929</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>300.4572929292929</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>341.6412929292929</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>362.2332929292929</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>372.5292929292929</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>372.5292929292929</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>241.2161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>201.8222222222222</v>
       </c>
     </row>
   </sheetData>

--- a/model/Output Files/Year 4.xlsx
+++ b/model/Output Files/Year 4.xlsx
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2.884000000000015</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76376.03999999999</v>
+        <v>76271.06239999998</v>
       </c>
       <c r="C2" t="n">
         <v>30200</v>
       </c>
       <c r="D2" t="n">
-        <v>9414.226097809207</v>
+        <v>9300.638068405267</v>
       </c>
       <c r="E2" t="n">
         <v>10370</v>
       </c>
       <c r="F2" t="n">
-        <v>17385.10528124369</v>
+        <v>17390.77723779275</v>
       </c>
     </row>
   </sheetData>
@@ -1406,7 +1406,7 @@
         <v>20.8</v>
       </c>
       <c r="H2" t="n">
-        <v>40.0363636363636</v>
+        <v>41.6</v>
       </c>
       <c r="I2" t="n">
         <v>52</v>
@@ -1436,7 +1436,7 @@
         <v>72.8</v>
       </c>
       <c r="R2" t="n">
-        <v>52</v>
+        <v>50.43636363636378</v>
       </c>
       <c r="S2" t="n">
         <v>31.2</v>
@@ -1486,28 +1486,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>62.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18.85311702887476</v>
       </c>
       <c r="L3" t="n">
         <v>93.59999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>104</v>
+        <v>23.4</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>83.2</v>
       </c>
       <c r="O3" t="n">
-        <v>50.05311702887462</v>
+        <v>72.8</v>
       </c>
       <c r="P3" t="n">
-        <v>28.6</v>
+        <v>52</v>
       </c>
       <c r="Q3" t="n">
         <v>26</v>
@@ -1569,25 +1569,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="L4" t="n">
-        <v>39.98312417100296</v>
+        <v>72.8</v>
       </c>
       <c r="M4" t="n">
         <v>83.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>60.78312417100297</v>
       </c>
       <c r="O4" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>10.4</v>
@@ -1730,7 +1730,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>27.0363636363636</v>
+        <v>28.6</v>
       </c>
       <c r="I2" t="n">
         <v>20.8</v>
@@ -1760,7 +1760,7 @@
         <v>46.8</v>
       </c>
       <c r="R2" t="n">
-        <v>18.2</v>
+        <v>16.63636363636378</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>62.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18.85311702887476</v>
       </c>
       <c r="L3" t="n">
         <v>93.59999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>80.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>57.2</v>
       </c>
       <c r="O3" t="n">
-        <v>50.05311702887462</v>
+        <v>72.8</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1893,25 +1893,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="L4" t="n">
-        <v>39.98312417100296</v>
+        <v>72.8</v>
       </c>
       <c r="M4" t="n">
         <v>59.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>60.78312417100297</v>
       </c>
       <c r="O4" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>10.4</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>10.4</v>
+        <v>7.515999999999954</v>
       </c>
       <c r="T2" t="n">
-        <v>28.31599999999998</v>
+        <v>31.2</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2378,40 +2378,40 @@
         <v>142.47</v>
       </c>
       <c r="H2" t="n">
-        <v>169.236</v>
+        <v>170.784</v>
       </c>
       <c r="I2" t="n">
-        <v>189.828</v>
+        <v>191.376</v>
       </c>
       <c r="J2" t="n">
-        <v>212.994</v>
+        <v>214.542</v>
       </c>
       <c r="K2" t="n">
-        <v>259.326</v>
+        <v>260.874</v>
       </c>
       <c r="L2" t="n">
-        <v>321.102</v>
+        <v>322.65</v>
       </c>
       <c r="M2" t="n">
-        <v>390.6</v>
+        <v>392.148</v>
       </c>
       <c r="N2" t="n">
-        <v>467.82</v>
+        <v>469.3679999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>529.596</v>
+        <v>531.1439999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>583.65</v>
+        <v>585.1979999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>629.982</v>
+        <v>631.5299999999999</v>
       </c>
       <c r="R2" t="n">
         <v>648</v>
       </c>
       <c r="S2" t="n">
-        <v>637.4949494949495</v>
+        <v>640.4080808080809</v>
       </c>
       <c r="T2" t="n">
         <v>608.8929292929294</v>
@@ -2458,31 +2458,31 @@
         <v>129.6</v>
       </c>
       <c r="I3" t="n">
-        <v>170.784</v>
+        <v>129.6</v>
       </c>
       <c r="J3" t="n">
-        <v>232.56</v>
+        <v>191.376</v>
       </c>
       <c r="K3" t="n">
-        <v>232.56</v>
+        <v>210.040585858586</v>
       </c>
       <c r="L3" t="n">
-        <v>325.224</v>
+        <v>302.704585858586</v>
       </c>
       <c r="M3" t="n">
-        <v>405.018</v>
+        <v>302.704585858586</v>
       </c>
       <c r="N3" t="n">
-        <v>405.018</v>
+        <v>359.332585858586</v>
       </c>
       <c r="O3" t="n">
-        <v>454.5705858585859</v>
+        <v>431.404585858586</v>
       </c>
       <c r="P3" t="n">
-        <v>454.5705858585859</v>
+        <v>454.570585858586</v>
       </c>
       <c r="Q3" t="n">
-        <v>454.5705858585859</v>
+        <v>454.570585858586</v>
       </c>
       <c r="R3" t="n">
         <v>485.4585858585859</v>
@@ -2541,22 +2541,22 @@
         <v>129.6</v>
       </c>
       <c r="K4" t="n">
-        <v>129.6</v>
+        <v>170.784</v>
       </c>
       <c r="L4" t="n">
-        <v>169.1832929292929</v>
+        <v>242.856</v>
       </c>
       <c r="M4" t="n">
-        <v>228.3852929292929</v>
+        <v>302.058</v>
       </c>
       <c r="N4" t="n">
-        <v>228.3852929292929</v>
+        <v>362.2332929292929</v>
       </c>
       <c r="O4" t="n">
-        <v>300.4572929292929</v>
+        <v>362.2332929292929</v>
       </c>
       <c r="P4" t="n">
-        <v>341.6412929292929</v>
+        <v>362.2332929292929</v>
       </c>
       <c r="Q4" t="n">
         <v>362.2332929292929</v>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2.884000000000047</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 4.xlsx
+++ b/model/Output Files/Year 4.xlsx
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76271.06239999998</v>
+        <v>77388.66797673711</v>
       </c>
       <c r="C2" t="n">
-        <v>30200</v>
+        <v>28000</v>
       </c>
       <c r="D2" t="n">
-        <v>9300.638068405267</v>
+        <v>7066.221906540152</v>
       </c>
       <c r="E2" t="n">
-        <v>10370</v>
+        <v>8900</v>
       </c>
       <c r="F2" t="n">
-        <v>17390.77723779275</v>
+        <v>22016.40045812957</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1215,13 +1215,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C4" t="n">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1403,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>93.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>93.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>50.43636363636378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1489,34 +1489,34 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>18.85311702887476</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>93.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>60.78312417100297</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1727,43 +1727,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>50.7</v>
       </c>
       <c r="H2" t="n">
-        <v>28.6</v>
+        <v>26.5</v>
       </c>
       <c r="I2" t="n">
-        <v>20.8</v>
+        <v>17.6</v>
       </c>
       <c r="J2" t="n">
-        <v>23.4</v>
+        <v>19.5</v>
       </c>
       <c r="K2" t="n">
-        <v>46.8</v>
+        <v>29.43427201306111</v>
       </c>
       <c r="L2" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>70.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>62.4</v>
+        <v>150</v>
       </c>
       <c r="P2" t="n">
-        <v>54.6</v>
+        <v>150</v>
       </c>
       <c r="Q2" t="n">
-        <v>46.8</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>16.63636363636378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>40.4</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1810,34 +1810,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>98.2307927762477</v>
       </c>
       <c r="J3" t="n">
-        <v>62.4</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
-        <v>18.85311702887476</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>93.59999999999999</v>
+        <v>150</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>57.2</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>31.2</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1890,19 +1890,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>41.6</v>
+        <v>125.3831241710019</v>
       </c>
       <c r="L4" t="n">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>59.8</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>60.78312417100297</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1911,10 +1911,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R4" t="n">
-        <v>10.4</v>
+        <v>30</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>7.515999999999954</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2360,76 +2360,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>188.6909090909091</v>
+        <v>179.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>168.9939393939394</v>
+        <v>159.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>155.8626262626263</v>
+        <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>142.7313131313131</v>
+        <v>133.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>129.6</v>
+        <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>142.47</v>
+        <v>170.193</v>
       </c>
       <c r="H2" t="n">
-        <v>170.784</v>
+        <v>196.428</v>
       </c>
       <c r="I2" t="n">
-        <v>191.376</v>
+        <v>213.852</v>
       </c>
       <c r="J2" t="n">
-        <v>214.542</v>
+        <v>233.157</v>
       </c>
       <c r="K2" t="n">
-        <v>260.874</v>
+        <v>262.2969292929305</v>
       </c>
       <c r="L2" t="n">
-        <v>322.65</v>
+        <v>262.2969292929305</v>
       </c>
       <c r="M2" t="n">
-        <v>392.148</v>
+        <v>262.2969292929305</v>
       </c>
       <c r="N2" t="n">
-        <v>469.3679999999999</v>
+        <v>262.2969292929305</v>
       </c>
       <c r="O2" t="n">
-        <v>531.1439999999999</v>
+        <v>410.7969292929305</v>
       </c>
       <c r="P2" t="n">
-        <v>585.1979999999999</v>
+        <v>559.2969292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>631.5299999999999</v>
+        <v>559.2969292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>648</v>
+        <v>559.2969292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>640.4080808080809</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="T2" t="n">
-        <v>608.8929292929294</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>490.7111111111111</v>
+        <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>392.2262626262627</v>
+        <v>382.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>313.4383838383839</v>
+        <v>303.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>260.9131313131313</v>
+        <v>251.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>221.5191919191919</v>
+        <v>211.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2437,76 +2437,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>182.1252525252525</v>
+        <v>172.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>162.4282828282828</v>
+        <v>152.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>129.6</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>129.6</v>
+        <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>129.6</v>
+        <v>217.2484848484852</v>
       </c>
       <c r="J3" t="n">
-        <v>191.376</v>
+        <v>276.6484848484852</v>
       </c>
       <c r="K3" t="n">
-        <v>210.040585858586</v>
+        <v>276.6484848484852</v>
       </c>
       <c r="L3" t="n">
-        <v>302.704585858586</v>
+        <v>425.1484848484852</v>
       </c>
       <c r="M3" t="n">
-        <v>302.704585858586</v>
+        <v>425.1484848484852</v>
       </c>
       <c r="N3" t="n">
-        <v>359.332585858586</v>
+        <v>425.1484848484852</v>
       </c>
       <c r="O3" t="n">
-        <v>431.404585858586</v>
+        <v>425.1484848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>454.570585858586</v>
+        <v>425.1484848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>454.570585858586</v>
+        <v>425.1484848484852</v>
       </c>
       <c r="R3" t="n">
-        <v>485.4585858585859</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="S3" t="n">
-        <v>464.4484848484849</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>333.1353535353535</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>333.1353535353535</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>333.1353535353535</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>254.3474747474747</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>254.3474747474747</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.9535353535353</v>
+        <v>205.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2514,76 +2514,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>168.9939393939394</v>
+        <v>159.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>149.2969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>129.6</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>129.6</v>
+        <v>120</v>
       </c>
       <c r="I4" t="n">
-        <v>129.6</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>129.6</v>
+        <v>149.7</v>
       </c>
       <c r="K4" t="n">
-        <v>170.784</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="L4" t="n">
-        <v>242.856</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="M4" t="n">
-        <v>302.058</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="N4" t="n">
-        <v>362.2332929292929</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="O4" t="n">
-        <v>362.2332929292929</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="P4" t="n">
-        <v>362.2332929292929</v>
+        <v>273.8292929292919</v>
       </c>
       <c r="Q4" t="n">
-        <v>362.2332929292929</v>
+        <v>333.2292929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>372.5292929292929</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>372.5292929292929</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>241.2161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>241.2161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>241.2161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>241.2161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>241.2161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8222222222222</v>
+        <v>192.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>178.6</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>98.23079277624768</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>125.3831241710019</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3347,46 +3347,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>48.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>55.43427201306112</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>33.8</v>
       </c>
       <c r="S2" t="n">
-        <v>2.884000000000047</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -3442,25 +3442,25 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3531,10 +3531,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>175.2</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -3707,10 +3707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3843,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -3855,10 +3855,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 4.xlsx
+++ b/model/Output Files/Year 4.xlsx
@@ -20,6 +20,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1295,6 +1296,330 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="G2" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>291.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>327</v>
+      </c>
+      <c r="J2" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>502</v>
+      </c>
+      <c r="L2" t="n">
+        <v>596</v>
+      </c>
+      <c r="M2" t="n">
+        <v>670.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>745</v>
+      </c>
+      <c r="O2" t="n">
+        <v>651</v>
+      </c>
+      <c r="P2" t="n">
+        <v>576.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>502</v>
+      </c>
+      <c r="R2" t="n">
+        <v>320.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>139</v>
+      </c>
+      <c r="T2" t="n">
+        <v>32</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-117</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-97.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-52</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>324</v>
+      </c>
+      <c r="J3" t="n">
+        <v>486</v>
+      </c>
+      <c r="K3" t="n">
+        <v>648</v>
+      </c>
+      <c r="L3" t="n">
+        <v>729</v>
+      </c>
+      <c r="M3" t="n">
+        <v>751.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>583</v>
+      </c>
+      <c r="O3" t="n">
+        <v>567</v>
+      </c>
+      <c r="P3" t="n">
+        <v>333.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>340</v>
+      </c>
+      <c r="R3" t="n">
+        <v>243</v>
+      </c>
+      <c r="S3" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>81</v>
+      </c>
+      <c r="K4" t="n">
+        <v>324</v>
+      </c>
+      <c r="L4" t="n">
+        <v>567</v>
+      </c>
+      <c r="M4" t="n">
+        <v>589.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>648</v>
+      </c>
+      <c r="O4" t="n">
+        <v>567</v>
+      </c>
+      <c r="P4" t="n">
+        <v>324</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>162</v>
+      </c>
+      <c r="R4" t="n">
+        <v>81</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/model/Output Files/Year 4.xlsx
+++ b/model/Output Files/Year 4.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673711</v>
+        <v>77388.66797673714</v>
       </c>
       <c r="C2" t="n">
         <v>28000</v>
       </c>
       <c r="D2" t="n">
-        <v>7066.221906540152</v>
+        <v>9992.97670278544</v>
       </c>
       <c r="E2" t="n">
-        <v>8900</v>
+        <v>9770</v>
       </c>
       <c r="F2" t="n">
-        <v>22016.40045812957</v>
+        <v>19515.36047260924</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>10.38312417100186</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2052,43 +2052,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>50.7</v>
+        <v>64.3</v>
       </c>
       <c r="H2" t="n">
-        <v>26.5</v>
+        <v>53.7</v>
       </c>
       <c r="I2" t="n">
-        <v>17.6</v>
+        <v>51.6</v>
       </c>
       <c r="J2" t="n">
-        <v>19.5</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
-        <v>29.43427201306111</v>
+        <v>21.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>37.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="P2" t="n">
-        <v>150</v>
+        <v>25.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>48.9</v>
       </c>
       <c r="S2" t="n">
-        <v>40.4</v>
+        <v>51.43427201306103</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>98.2307927762477</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>150</v>
+        <v>61.43079277624771</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>44.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3831241710019</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>10.38312417100186</v>
       </c>
       <c r="R4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2700,40 +2700,40 @@
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>170.193</v>
+        <v>183.657</v>
       </c>
       <c r="H2" t="n">
-        <v>196.428</v>
+        <v>236.82</v>
       </c>
       <c r="I2" t="n">
-        <v>213.852</v>
+        <v>287.904</v>
       </c>
       <c r="J2" t="n">
-        <v>233.157</v>
+        <v>289.686</v>
       </c>
       <c r="K2" t="n">
-        <v>262.2969292929305</v>
+        <v>311.07</v>
       </c>
       <c r="L2" t="n">
-        <v>262.2969292929305</v>
+        <v>344.334</v>
       </c>
       <c r="M2" t="n">
-        <v>262.2969292929305</v>
+        <v>381.756</v>
       </c>
       <c r="N2" t="n">
-        <v>262.2969292929305</v>
+        <v>423.336</v>
       </c>
       <c r="O2" t="n">
-        <v>410.7969292929305</v>
+        <v>453.0359999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>559.2969292929305</v>
+        <v>478.578</v>
       </c>
       <c r="Q2" t="n">
-        <v>559.2969292929305</v>
+        <v>499.962</v>
       </c>
       <c r="R2" t="n">
-        <v>559.2969292929305</v>
+        <v>548.373</v>
       </c>
       <c r="S2" t="n">
         <v>599.2929292929305</v>
@@ -2783,31 +2783,31 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>217.2484848484852</v>
+        <v>146.928</v>
       </c>
       <c r="J3" t="n">
-        <v>276.6484848484852</v>
+        <v>187.32</v>
       </c>
       <c r="K3" t="n">
-        <v>276.6484848484852</v>
+        <v>241.176</v>
       </c>
       <c r="L3" t="n">
-        <v>425.1484848484852</v>
+        <v>301.9924848484852</v>
       </c>
       <c r="M3" t="n">
-        <v>425.1484848484852</v>
+        <v>346.1464848484852</v>
       </c>
       <c r="N3" t="n">
-        <v>425.1484848484852</v>
+        <v>374.2624848484852</v>
       </c>
       <c r="O3" t="n">
-        <v>425.1484848484852</v>
+        <v>421.3864848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>425.1484848484852</v>
+        <v>426.7324848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>425.1484848484852</v>
+        <v>434.6524848484852</v>
       </c>
       <c r="R3" t="n">
         <v>454.8484848484852</v>
@@ -2863,28 +2863,28 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>149.7</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>273.8292929292919</v>
+        <v>146.928</v>
       </c>
       <c r="L4" t="n">
-        <v>273.8292929292919</v>
+        <v>194.052</v>
       </c>
       <c r="M4" t="n">
-        <v>273.8292929292919</v>
+        <v>224.742</v>
       </c>
       <c r="N4" t="n">
-        <v>273.8292929292919</v>
+        <v>278.598</v>
       </c>
       <c r="O4" t="n">
-        <v>273.8292929292919</v>
+        <v>325.722</v>
       </c>
       <c r="P4" t="n">
-        <v>273.8292929292919</v>
+        <v>352.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>333.2292929292918</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>178.6</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>98.23079277624768</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3831241710019</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3681,31 +3681,31 @@
         <v>48.8</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.43427201306112</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>33.8</v>
+        <v>48.7</v>
       </c>
       <c r="S2" t="n">
         <v>28.4</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -3767,22 +3767,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>18.4</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3856,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>175.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -4032,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.6</v>
+        <v>44.23427201306104</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>20.4</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4088,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>150</v>
+        <v>0.2307927762477035</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>23.2</v>
+        <v>9.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 4.xlsx
+++ b/model/Output Files/Year 4.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66803305056</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>9992.976709824618</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9770</v>
+        <v>8150</v>
       </c>
       <c r="F2" t="n">
-        <v>19515.3605050677</v>
+        <v>-5368.657439281751</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,50 +1245,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Type 3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Type 4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Type 5</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -1296,249 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>15</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L2" t="n">
-        <v>15</v>
-      </c>
-      <c r="M2" t="n">
-        <v>15</v>
-      </c>
-      <c r="N2" t="n">
-        <v>15</v>
-      </c>
-      <c r="O2" t="n">
-        <v>15</v>
-      </c>
-      <c r="P2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>34</v>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34</v>
-      </c>
-      <c r="E3" t="n">
-        <v>34</v>
-      </c>
-      <c r="F3" t="n">
-        <v>34</v>
-      </c>
-      <c r="G3" t="n">
-        <v>34</v>
-      </c>
-      <c r="H3" t="n">
-        <v>34</v>
-      </c>
-      <c r="I3" t="n">
-        <v>34</v>
-      </c>
-      <c r="J3" t="n">
-        <v>34</v>
-      </c>
-      <c r="K3" t="n">
-        <v>34</v>
-      </c>
-      <c r="L3" t="n">
-        <v>34</v>
-      </c>
-      <c r="M3" t="n">
-        <v>34</v>
-      </c>
-      <c r="N3" t="n">
-        <v>34</v>
-      </c>
-      <c r="O3" t="n">
-        <v>34</v>
-      </c>
-      <c r="P3" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1639,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1716,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1731,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1779,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1793,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1808,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1817,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1862,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1978,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2061,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2141,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>10.38312417100186</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2302,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>25.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>14.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>37.8</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>124.234272013061</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2385,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>44.6</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.63079277624766</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2465,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>10.38312417100186</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2611,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2668,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2688,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2703,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2742,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2751,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2765,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2780,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2819,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2834,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909106</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939416</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626277</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313139</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>145.245</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>159.303</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.075</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>163.857</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>185.241</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>218.505</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>255.927</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>378.9189292929304</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>408.6189292929304</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>557.1189292929304</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>578.5029292929304</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>578.7009292929304</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>585.8289292929304</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929305</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>481.1111111111111</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262645</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>303.838383838385</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131332</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252518</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282828</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>146.928</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>187.32</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>241.176</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>301.764</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>345.918</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>374.034</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>421.158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>426.504</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>434.424</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>454.8484848484852</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484852</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353539</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353539</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353539</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474744</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474744</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939379</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>126.732</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>153.66</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>200.784</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>231.474</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>285.33</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>332.454</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>342.7332929292918</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>356.1972929292918</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292918</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292918</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2222222222222</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3619,13 +3369,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>82.234272013061</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>45.3</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -3637,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3922,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -3949,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>78.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -3958,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4032,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2307935455569061</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -4359,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>

--- a/model/Output Files/Year 4.xlsx
+++ b/model/Output Files/Year 4.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>77388.66797673714</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9992.97670278544</v>
       </c>
       <c r="E2" t="n">
-        <v>8150</v>
+        <v>9770</v>
       </c>
       <c r="F2" t="n">
-        <v>-5368.657439281751</v>
+        <v>19515.36047260924</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>140</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1276,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1389,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>142.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>291.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>388.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>670.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>576.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>320.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="3">
@@ -1466,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1481,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>751.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>333.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="4">
@@ -1543,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1567,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>589.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>10.38312417100186</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2052,43 +2052,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>64.3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>53.7</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>51.6</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>37.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>25.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>48.9</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>51.43427201306103</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>61.43079277624771</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>44.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2218,25 +2218,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>54.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>10.38312417100186</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2418,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2438,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2515,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>179.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>159.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>133.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>183.657</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>236.82</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>287.904</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>289.686</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>311.07</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>344.334</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>381.756</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>423.336</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>453.0359999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>478.578</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>499.962</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>548.373</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>382.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>303.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>251.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>211.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>172.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>152.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>146.928</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>187.32</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>241.176</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>301.9924848484852</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>346.1464848484852</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>374.2624848484852</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>421.3864848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>426.7324848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>434.6524848484852</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>159.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>146.928</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>194.052</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>224.742</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>278.598</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>325.722</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>352.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>192.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>48.8</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>48.7</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4032,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>44.23427201306104</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4088,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.2307927762477035</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>

--- a/model/Output Files/Year 4.xlsx
+++ b/model/Output Files/Year 4.xlsx
@@ -1132,13 +1132,13 @@
         <v>28000</v>
       </c>
       <c r="D2" t="n">
-        <v>9992.97670278544</v>
+        <v>14091.39863177227</v>
       </c>
       <c r="E2" t="n">
-        <v>9770</v>
+        <v>8900</v>
       </c>
       <c r="F2" t="n">
-        <v>19515.36047260924</v>
+        <v>17388.69895037666</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>40.8</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="P2" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="R2" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>20.4</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>61.2</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="N3" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>13.6</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.38312417100186</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>64.3</v>
+        <v>52.7</v>
       </c>
       <c r="H2" t="n">
-        <v>53.7</v>
+        <v>30.5</v>
       </c>
       <c r="I2" t="n">
-        <v>51.6</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>37.8</v>
+        <v>0.3342720130611458</v>
       </c>
       <c r="N2" t="n">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="O2" t="n">
-        <v>30</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>25.8</v>
+        <v>150</v>
       </c>
       <c r="Q2" t="n">
-        <v>21.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>48.9</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>51.43427201306103</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,37 +2135,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27.2</v>
+        <v>44</v>
       </c>
       <c r="J3" t="n">
-        <v>40.8</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>54.4</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>61.43079277624771</v>
+        <v>99</v>
       </c>
       <c r="M3" t="n">
-        <v>44.6</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47.6</v>
+        <v>147</v>
       </c>
       <c r="P3" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>33</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.230792776247638</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K4" t="n">
-        <v>27.2</v>
+        <v>44</v>
       </c>
       <c r="L4" t="n">
-        <v>47.6</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>59.3831241710018</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7</v>
+      </c>
+      <c r="P4" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>22</v>
+      </c>
+      <c r="R4" t="n">
         <v>31</v>
-      </c>
-      <c r="N4" t="n">
-        <v>54.4</v>
-      </c>
-      <c r="O4" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="P4" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>10.38312417100186</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2700,43 +2700,43 @@
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>183.657</v>
+        <v>172.173</v>
       </c>
       <c r="H2" t="n">
-        <v>236.82</v>
+        <v>202.368</v>
       </c>
       <c r="I2" t="n">
-        <v>287.904</v>
+        <v>202.368</v>
       </c>
       <c r="J2" t="n">
-        <v>289.686</v>
+        <v>202.368</v>
       </c>
       <c r="K2" t="n">
-        <v>311.07</v>
+        <v>202.368</v>
       </c>
       <c r="L2" t="n">
-        <v>344.334</v>
+        <v>202.368</v>
       </c>
       <c r="M2" t="n">
-        <v>381.756</v>
+        <v>202.6989292929305</v>
       </c>
       <c r="N2" t="n">
-        <v>423.336</v>
+        <v>351.1989292929305</v>
       </c>
       <c r="O2" t="n">
-        <v>453.0359999999999</v>
+        <v>417.1329292929305</v>
       </c>
       <c r="P2" t="n">
-        <v>478.578</v>
+        <v>565.6329292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>499.962</v>
+        <v>565.6329292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>548.373</v>
+        <v>565.6329292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>599.2929292929305</v>
+        <v>565.6329292929305</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2783,34 +2783,34 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>146.928</v>
+        <v>163.56</v>
       </c>
       <c r="J3" t="n">
-        <v>187.32</v>
+        <v>169.5</v>
       </c>
       <c r="K3" t="n">
-        <v>241.176</v>
+        <v>177.42</v>
       </c>
       <c r="L3" t="n">
-        <v>301.9924848484852</v>
+        <v>275.43</v>
       </c>
       <c r="M3" t="n">
-        <v>346.1464848484852</v>
+        <v>275.43</v>
       </c>
       <c r="N3" t="n">
-        <v>374.2624848484852</v>
+        <v>275.43</v>
       </c>
       <c r="O3" t="n">
-        <v>421.3864848484852</v>
+        <v>420.96</v>
       </c>
       <c r="P3" t="n">
-        <v>426.7324848484852</v>
+        <v>420.96</v>
       </c>
       <c r="Q3" t="n">
-        <v>434.6524848484852</v>
+        <v>420.96</v>
       </c>
       <c r="R3" t="n">
-        <v>454.8484848484852</v>
+        <v>453.6300000000001</v>
       </c>
       <c r="S3" t="n">
         <v>454.8484848484852</v>
@@ -2863,28 +2863,28 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>150.69</v>
       </c>
       <c r="K4" t="n">
-        <v>146.928</v>
+        <v>194.25</v>
       </c>
       <c r="L4" t="n">
-        <v>194.052</v>
+        <v>201.18</v>
       </c>
       <c r="M4" t="n">
-        <v>224.742</v>
+        <v>201.18</v>
       </c>
       <c r="N4" t="n">
-        <v>278.598</v>
+        <v>259.9692929292918</v>
       </c>
       <c r="O4" t="n">
-        <v>325.722</v>
+        <v>266.8992929292918</v>
       </c>
       <c r="P4" t="n">
-        <v>352.65</v>
+        <v>310.4592929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>362.9292929292918</v>
+        <v>332.2392929292918</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3366,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>14.73427201306115</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>22.43079277624764</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3678,34 +3678,34 @@
         <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>48.8</v>
+        <v>26.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>12.8</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>88.8</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="R2" t="n">
-        <v>48.7</v>
+        <v>28.8</v>
       </c>
       <c r="S2" t="n">
         <v>28.4</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3764,25 +3764,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>23.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
         <v>18.4</v>
@@ -3835,10 +3835,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3847,19 +3847,19 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>51.3831241710018</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -4023,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>155.6</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -4032,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>44.23427201306104</v>
+        <v>10.2</v>
       </c>
       <c r="T2" t="n">
-        <v>20.4</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4088,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2307927762477035</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -4097,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 4.xlsx
+++ b/model/Output Files/Year 4.xlsx
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.7479999999832927</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673714</v>
+        <v>80569.328803999</v>
       </c>
       <c r="C2" t="n">
-        <v>28000</v>
+        <v>35800</v>
       </c>
       <c r="D2" t="n">
-        <v>14091.39863177227</v>
+        <v>15428.47172259258</v>
       </c>
       <c r="E2" t="n">
-        <v>8900</v>
+        <v>9095</v>
       </c>
       <c r="F2" t="n">
-        <v>17388.69895037666</v>
+        <v>13336.57315763529</v>
       </c>
     </row>
   </sheetData>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="D4" t="n">
-        <v>140</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1404,46 +1404,46 @@
         <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>22.1</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>50.7</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>27.3</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>114.4</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>128.7</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>143</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>109.2</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>19.5</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>-41.60000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>-88.40000000000001</v>
       </c>
       <c r="U2" t="n">
         <v>-117</v>
@@ -1487,37 +1487,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>124.8</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>187.2</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>149.5</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>101.4</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>32.49999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>39</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>62.4</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>-62.40000000000001</v>
       </c>
       <c r="T3" t="n">
         <v>-130</v>
@@ -1567,31 +1567,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>107.9</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>41.6</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>52.7</v>
+        <v>24.1</v>
       </c>
       <c r="H2" t="n">
-        <v>30.5</v>
+        <v>54.7</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -2067,31 +2067,31 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3342720130611458</v>
+        <v>128.2090909090908</v>
       </c>
       <c r="N2" t="n">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="O2" t="n">
-        <v>66.59999999999999</v>
+        <v>118.2</v>
       </c>
       <c r="P2" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,37 +2135,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12</v>
+      </c>
+      <c r="K3" t="n">
+        <v>36.75715743291541</v>
+      </c>
+      <c r="L3" t="n">
+        <v>171</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>14</v>
+      </c>
+      <c r="P3" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="Q3" t="n">
         <v>44</v>
       </c>
-      <c r="J3" t="n">
-        <v>6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>8</v>
-      </c>
-      <c r="L3" t="n">
-        <v>99</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>147</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>33</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>1.230792776247638</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>31</v>
+        <v>20.78312417100185</v>
       </c>
       <c r="K4" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>59.3831241710018</v>
+        <v>152</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="P4" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="Q4" t="n">
-        <v>22</v>
+        <v>9.6</v>
       </c>
       <c r="R4" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>38.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>85.65200000001671</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>60.4</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909106</v>
+        <v>210.2909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939416</v>
+        <v>190.5939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626277</v>
+        <v>177.4626262626278</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313139</v>
+        <v>164.3313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>151.2</v>
       </c>
       <c r="G2" t="n">
-        <v>172.173</v>
+        <v>175.059</v>
       </c>
       <c r="H2" t="n">
-        <v>202.368</v>
+        <v>229.212</v>
       </c>
       <c r="I2" t="n">
-        <v>202.368</v>
+        <v>259.902</v>
       </c>
       <c r="J2" t="n">
-        <v>202.368</v>
+        <v>259.902</v>
       </c>
       <c r="K2" t="n">
-        <v>202.368</v>
+        <v>259.902</v>
       </c>
       <c r="L2" t="n">
-        <v>202.368</v>
+        <v>273.366</v>
       </c>
       <c r="M2" t="n">
-        <v>202.6989292929305</v>
+        <v>400.2929999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>351.1989292929305</v>
+        <v>528.0029999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>417.1329292929305</v>
+        <v>645.021</v>
       </c>
       <c r="P2" t="n">
-        <v>565.6329292929305</v>
+        <v>645.021</v>
       </c>
       <c r="Q2" t="n">
-        <v>565.6329292929305</v>
+        <v>731.745</v>
       </c>
       <c r="R2" t="n">
-        <v>565.6329292929305</v>
+        <v>756</v>
       </c>
       <c r="S2" t="n">
-        <v>565.6329292929305</v>
+        <v>717.010101010119</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929305</v>
+        <v>630.4929292929304</v>
       </c>
       <c r="U2" t="n">
-        <v>481.1111111111111</v>
+        <v>512.3111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262645</v>
+        <v>413.8262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>303.838383838385</v>
+        <v>335.038383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131332</v>
+        <v>282.5131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191934</v>
+        <v>243.1191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252518</v>
+        <v>203.7252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282828</v>
+        <v>184.0282828282829</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969689</v>
+        <v>170.896969696969</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969689</v>
+        <v>170.896969696969</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969689</v>
+        <v>170.896969696969</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>151.2</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>151.2</v>
       </c>
       <c r="I3" t="n">
-        <v>163.56</v>
+        <v>170.208</v>
       </c>
       <c r="J3" t="n">
-        <v>169.5</v>
+        <v>182.088</v>
       </c>
       <c r="K3" t="n">
-        <v>177.42</v>
+        <v>218.4775858585863</v>
       </c>
       <c r="L3" t="n">
-        <v>275.43</v>
+        <v>387.7675858585863</v>
       </c>
       <c r="M3" t="n">
-        <v>275.43</v>
+        <v>387.7675858585863</v>
       </c>
       <c r="N3" t="n">
-        <v>275.43</v>
+        <v>387.7675858585863</v>
       </c>
       <c r="O3" t="n">
-        <v>420.96</v>
+        <v>401.6275858585863</v>
       </c>
       <c r="P3" t="n">
-        <v>420.96</v>
+        <v>438.7525858585863</v>
       </c>
       <c r="Q3" t="n">
-        <v>420.96</v>
+        <v>482.3125858585863</v>
       </c>
       <c r="R3" t="n">
-        <v>453.6300000000001</v>
+        <v>547.0585858585863</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484852</v>
+        <v>486.0484848484853</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353539</v>
+        <v>354.735353535354</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353539</v>
+        <v>354.735353535354</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353539</v>
+        <v>354.735353535354</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474744</v>
+        <v>275.9474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474744</v>
+        <v>275.9474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535346</v>
+        <v>236.5535353535347</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939379</v>
+        <v>190.5939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969689</v>
+        <v>170.896969696969</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969689</v>
+        <v>170.896969696969</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969689</v>
+        <v>170.896969696969</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969689</v>
+        <v>170.896969696969</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>151.2</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>151.2</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>151.2</v>
       </c>
       <c r="J4" t="n">
-        <v>150.69</v>
+        <v>171.7752929292919</v>
       </c>
       <c r="K4" t="n">
-        <v>194.25</v>
+        <v>179.6952929292918</v>
       </c>
       <c r="L4" t="n">
-        <v>201.18</v>
+        <v>193.5552929292918</v>
       </c>
       <c r="M4" t="n">
-        <v>201.18</v>
+        <v>193.5552929292918</v>
       </c>
       <c r="N4" t="n">
-        <v>259.9692929292918</v>
+        <v>344.0352929292918</v>
       </c>
       <c r="O4" t="n">
-        <v>266.8992929292918</v>
+        <v>357.8952929292918</v>
       </c>
       <c r="P4" t="n">
-        <v>310.4592929292918</v>
+        <v>365.8152929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>332.2392929292918</v>
+        <v>375.3192929292919</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292918</v>
+        <v>394.1292929292919</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292918</v>
+        <v>394.1292929292919</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161605</v>
+        <v>262.8161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161605</v>
+        <v>262.8161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161605</v>
+        <v>262.8161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161605</v>
+        <v>262.8161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161605</v>
+        <v>262.8161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2222222222222</v>
+        <v>223.4222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3348,16 +3348,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>23.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>44.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>17.7</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3366,28 +3366,28 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>14.73427201306115</v>
+        <v>122.4</v>
       </c>
       <c r="N2" t="n">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>112.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3440,28 +3440,28 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="S3" t="n">
-        <v>22.43079277624764</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,46 +3672,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>26.2</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>33</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>3.4</v>
       </c>
       <c r="L2" t="n">
-        <v>12.8</v>
+        <v>7.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="N2" t="n">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>88.8</v>
+        <v>7.8</v>
       </c>
       <c r="P2" t="n">
-        <v>15</v>
+        <v>6.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="R2" t="n">
-        <v>28.8</v>
+        <v>3.7</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3755,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>13.4</v>
+        <v>9.1</v>
       </c>
       <c r="N3" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>23.6</v>
+        <v>3.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>0.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,31 +3835,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="N4" t="n">
-        <v>51.3831241710018</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,46 +3996,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>4.4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>19.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>12.10909090909083</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="P2" t="n">
-        <v>155.6</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>10.2</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4079,13 +4079,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>20.75715743291541</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -4097,16 +4097,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>1.783124171001852</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>15.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="R4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 4.xlsx
+++ b/model/Output Files/Year 4.xlsx
@@ -525,19 +525,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -576,25 +576,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7479999999832927</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>83.49387999999996</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>80569.328803999</v>
+        <v>80328.53308475453</v>
       </c>
       <c r="C2" t="n">
-        <v>35800</v>
+        <v>24000</v>
       </c>
       <c r="D2" t="n">
-        <v>15428.47172259258</v>
+        <v>19406.72464025305</v>
       </c>
       <c r="E2" t="n">
-        <v>9095</v>
+        <v>9790</v>
       </c>
       <c r="F2" t="n">
-        <v>13336.57315763529</v>
+        <v>17872.56260696199</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="C4" t="n">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="D4" t="n">
-        <v>179</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>15.2</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>30.4</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>45.6</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>53.2</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>60.8</v>
       </c>
       <c r="M2" t="n">
-        <v>9</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="O2" t="n">
-        <v>9</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>60.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>53.2</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>22.8</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>15.2</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>30.4</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>45.6</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>60.8</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>60.8</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>49.99726558514364</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>22.8</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>15.2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>30.4</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>53.2</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>60.8</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>60.8</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>53.2</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>10.38312417100261</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,40 +2052,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>24.1</v>
+        <v>7.400000000000002</v>
       </c>
       <c r="H2" t="n">
-        <v>54.7</v>
+        <v>17.4</v>
       </c>
       <c r="I2" t="n">
-        <v>31</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="L2" t="n">
-        <v>13.6</v>
+        <v>40</v>
       </c>
       <c r="M2" t="n">
-        <v>128.2090909090908</v>
+        <v>45.00000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="O2" t="n">
-        <v>118.2</v>
+        <v>37.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>32.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>87.59999999999999</v>
+        <v>27.2</v>
       </c>
       <c r="R2" t="n">
-        <v>24.5</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19.2</v>
+        <v>30.4</v>
       </c>
       <c r="J3" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="M3" t="n">
+        <v>52.60000000000036</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>49.99726558514364</v>
+      </c>
+      <c r="P3" t="n">
+        <v>9.399999999999636</v>
+      </c>
+      <c r="Q3" t="n">
         <v>12</v>
       </c>
-      <c r="K3" t="n">
-        <v>36.75715743291541</v>
-      </c>
-      <c r="L3" t="n">
-        <v>171</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>14</v>
-      </c>
-      <c r="P3" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>44</v>
-      </c>
       <c r="R3" t="n">
-        <v>65.40000000000001</v>
+        <v>22.8</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.78312417100185</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>30.4</v>
       </c>
       <c r="L4" t="n">
-        <v>14</v>
+        <v>53.2</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>37.40000000000037</v>
       </c>
       <c r="N4" t="n">
-        <v>152</v>
+        <v>60.8</v>
       </c>
       <c r="O4" t="n">
-        <v>14</v>
+        <v>53.2</v>
       </c>
       <c r="P4" t="n">
-        <v>8</v>
+        <v>10.38312417100261</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2412,25 +2412,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>38.6</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>85.65200000001671</v>
+        <v>73.2</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>14.00612000000004</v>
       </c>
       <c r="W2" t="n">
         <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>60.4</v>
+        <v>47.59999999999927</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>210.2909090909106</v>
+        <v>234.9433131313131</v>
       </c>
       <c r="C2" t="n">
-        <v>190.5939393939416</v>
+        <v>234.9433131313131</v>
       </c>
       <c r="D2" t="n">
-        <v>177.4626262626278</v>
+        <v>234.9433131313131</v>
       </c>
       <c r="E2" t="n">
-        <v>164.3313131313139</v>
+        <v>221.812</v>
       </c>
       <c r="F2" t="n">
-        <v>151.2</v>
+        <v>221.812</v>
       </c>
       <c r="G2" t="n">
-        <v>175.059</v>
+        <v>229.1379999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>229.212</v>
+        <v>246.3639999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>259.902</v>
+        <v>253.0959999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>259.902</v>
+        <v>259.6299999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>259.902</v>
+        <v>286.5579999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>273.366</v>
+        <v>326.158</v>
       </c>
       <c r="M2" t="n">
-        <v>400.2929999999999</v>
+        <v>370.708</v>
       </c>
       <c r="N2" t="n">
-        <v>528.0029999999999</v>
+        <v>420.208</v>
       </c>
       <c r="O2" t="n">
-        <v>645.021</v>
+        <v>457.036</v>
       </c>
       <c r="P2" t="n">
-        <v>645.021</v>
+        <v>488.914</v>
       </c>
       <c r="Q2" t="n">
-        <v>731.745</v>
+        <v>515.842</v>
       </c>
       <c r="R2" t="n">
-        <v>756</v>
+        <v>520</v>
       </c>
       <c r="S2" t="n">
-        <v>717.010101010119</v>
+        <v>520</v>
       </c>
       <c r="T2" t="n">
-        <v>630.4929292929304</v>
+        <v>446.0606060606061</v>
       </c>
       <c r="U2" t="n">
-        <v>512.3111111111111</v>
+        <v>327.8787878787879</v>
       </c>
       <c r="V2" t="n">
-        <v>413.8262626262645</v>
+        <v>313.7311919191919</v>
       </c>
       <c r="W2" t="n">
-        <v>335.038383838385</v>
+        <v>234.9433131313131</v>
       </c>
       <c r="X2" t="n">
-        <v>282.5131313131332</v>
+        <v>234.9433131313131</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.1191919191934</v>
+        <v>234.9433131313131</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>203.7252525252518</v>
+        <v>156.5252525252525</v>
       </c>
       <c r="C3" t="n">
-        <v>184.0282828282829</v>
+        <v>136.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>170.896969696969</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>170.896969696969</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>170.896969696969</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>151.2</v>
+        <v>104</v>
       </c>
       <c r="H3" t="n">
-        <v>151.2</v>
+        <v>104</v>
       </c>
       <c r="I3" t="n">
-        <v>170.208</v>
+        <v>134.096</v>
       </c>
       <c r="J3" t="n">
-        <v>182.088</v>
+        <v>179.24</v>
       </c>
       <c r="K3" t="n">
-        <v>218.4775858585863</v>
+        <v>239.432</v>
       </c>
       <c r="L3" t="n">
-        <v>387.7675858585863</v>
+        <v>307.148</v>
       </c>
       <c r="M3" t="n">
-        <v>387.7675858585863</v>
+        <v>359.2220000000004</v>
       </c>
       <c r="N3" t="n">
-        <v>387.7675858585863</v>
+        <v>393.6740000000004</v>
       </c>
       <c r="O3" t="n">
-        <v>401.6275858585863</v>
+        <v>443.1712929292926</v>
       </c>
       <c r="P3" t="n">
-        <v>438.7525858585863</v>
+        <v>452.4772929292922</v>
       </c>
       <c r="Q3" t="n">
-        <v>482.3125858585863</v>
+        <v>464.3572929292922</v>
       </c>
       <c r="R3" t="n">
-        <v>547.0585858585863</v>
+        <v>486.9292929292922</v>
       </c>
       <c r="S3" t="n">
-        <v>486.0484848484853</v>
+        <v>438.8484848484849</v>
       </c>
       <c r="T3" t="n">
-        <v>354.735353535354</v>
+        <v>307.5353535353535</v>
       </c>
       <c r="U3" t="n">
-        <v>354.735353535354</v>
+        <v>307.5353535353535</v>
       </c>
       <c r="V3" t="n">
-        <v>354.735353535354</v>
+        <v>307.5353535353535</v>
       </c>
       <c r="W3" t="n">
-        <v>275.9474747474744</v>
+        <v>228.7474747474747</v>
       </c>
       <c r="X3" t="n">
-        <v>275.9474747474744</v>
+        <v>228.7474747474747</v>
       </c>
       <c r="Y3" t="n">
-        <v>236.5535353535347</v>
+        <v>189.3535353535353</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>190.5939393939379</v>
+        <v>143.3939393939394</v>
       </c>
       <c r="C4" t="n">
-        <v>170.896969696969</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="D4" t="n">
-        <v>170.896969696969</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>170.896969696969</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>170.896969696969</v>
+        <v>123.6969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>151.2</v>
+        <v>104</v>
       </c>
       <c r="H4" t="n">
-        <v>151.2</v>
+        <v>104</v>
       </c>
       <c r="I4" t="n">
-        <v>151.2</v>
+        <v>104</v>
       </c>
       <c r="J4" t="n">
-        <v>171.7752929292919</v>
+        <v>104</v>
       </c>
       <c r="K4" t="n">
-        <v>179.6952929292918</v>
+        <v>134.096</v>
       </c>
       <c r="L4" t="n">
-        <v>193.5552929292918</v>
+        <v>186.764</v>
       </c>
       <c r="M4" t="n">
-        <v>193.5552929292918</v>
+        <v>223.7900000000004</v>
       </c>
       <c r="N4" t="n">
-        <v>344.0352929292918</v>
+        <v>283.9820000000004</v>
       </c>
       <c r="O4" t="n">
-        <v>357.8952929292918</v>
+        <v>336.6500000000004</v>
       </c>
       <c r="P4" t="n">
-        <v>365.8152929292918</v>
+        <v>346.929292929293</v>
       </c>
       <c r="Q4" t="n">
-        <v>375.3192929292919</v>
+        <v>346.929292929293</v>
       </c>
       <c r="R4" t="n">
-        <v>394.1292929292919</v>
+        <v>346.929292929293</v>
       </c>
       <c r="S4" t="n">
-        <v>394.1292929292919</v>
+        <v>346.929292929293</v>
       </c>
       <c r="T4" t="n">
-        <v>262.8161616161605</v>
+        <v>215.6161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>262.8161616161605</v>
+        <v>215.6161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>262.8161616161605</v>
+        <v>215.6161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>262.8161616161605</v>
+        <v>215.6161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>262.8161616161605</v>
+        <v>215.6161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>223.4222222222222</v>
+        <v>176.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3348,16 +3348,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>17.7</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3366,22 +3366,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>122.4</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>112.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>13.7</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -3440,25 +3440,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,43 +3672,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -3755,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,31 +3835,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,43 +3996,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>19.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>12.10909090909083</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -4079,13 +4079,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>20.75715743291541</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -4100,13 +4100,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.783124171001852</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 4.xlsx
+++ b/model/Output Files/Year 4.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673714</v>
+        <v>77388.66803305056</v>
       </c>
       <c r="C2" t="n">
         <v>28000</v>
       </c>
       <c r="D2" t="n">
-        <v>9992.97670278544</v>
+        <v>9992.976709824618</v>
       </c>
       <c r="E2" t="n">
         <v>9770</v>
       </c>
       <c r="F2" t="n">
-        <v>19515.36047260924</v>
+        <v>19515.3605050677</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,30 +1245,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Type 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Type 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Type 4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Type 5</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -1279,15 +1299,245 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2" t="n">
+        <v>15</v>
+      </c>
+      <c r="M2" t="n">
+        <v>15</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>34</v>
       </c>
-      <c r="D2" t="n">
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34</v>
+      </c>
+      <c r="G3" t="n">
+        <v>34</v>
+      </c>
+      <c r="H3" t="n">
+        <v>34</v>
+      </c>
+      <c r="I3" t="n">
+        <v>34</v>
+      </c>
+      <c r="J3" t="n">
+        <v>34</v>
+      </c>
+      <c r="K3" t="n">
+        <v>34</v>
+      </c>
+      <c r="L3" t="n">
+        <v>34</v>
+      </c>
+      <c r="M3" t="n">
+        <v>34</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34</v>
+      </c>
+      <c r="O3" t="n">
+        <v>34</v>
+      </c>
+      <c r="P3" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="F2" t="n">
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11</v>
+      </c>
+      <c r="P6" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1891,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="K4" t="n">
         <v>27.2</v>
@@ -1909,13 +2159,13 @@
         <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>10.38312417100186</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.38312417100186</v>
+        <v>13.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,13 +2302,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>64.3</v>
+        <v>25.5</v>
       </c>
       <c r="H2" t="n">
-        <v>53.7</v>
+        <v>14.2</v>
       </c>
       <c r="I2" t="n">
-        <v>51.6</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
         <v>1.8</v>
@@ -2073,25 +2323,25 @@
         <v>37.8</v>
       </c>
       <c r="N2" t="n">
-        <v>42</v>
+        <v>124.234272013061</v>
       </c>
       <c r="O2" t="n">
         <v>30</v>
       </c>
       <c r="P2" t="n">
-        <v>25.8</v>
+        <v>150</v>
       </c>
       <c r="Q2" t="n">
         <v>21.6</v>
       </c>
       <c r="R2" t="n">
-        <v>48.9</v>
+        <v>0.2</v>
       </c>
       <c r="S2" t="n">
-        <v>51.43427201306103</v>
+        <v>7.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2144,7 +2394,7 @@
         <v>54.4</v>
       </c>
       <c r="L3" t="n">
-        <v>61.43079277624771</v>
+        <v>61.2</v>
       </c>
       <c r="M3" t="n">
         <v>44.6</v>
@@ -2162,7 +2412,7 @@
         <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>20.4</v>
+        <v>20.63079277624766</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="K4" t="n">
         <v>27.2</v>
@@ -2233,13 +2483,13 @@
         <v>47.6</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>10.38312417100186</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.38312417100186</v>
+        <v>13.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2700,43 +2950,43 @@
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>183.657</v>
+        <v>145.245</v>
       </c>
       <c r="H2" t="n">
-        <v>236.82</v>
+        <v>159.303</v>
       </c>
       <c r="I2" t="n">
-        <v>287.904</v>
+        <v>162.075</v>
       </c>
       <c r="J2" t="n">
-        <v>289.686</v>
+        <v>163.857</v>
       </c>
       <c r="K2" t="n">
-        <v>311.07</v>
+        <v>185.241</v>
       </c>
       <c r="L2" t="n">
-        <v>344.334</v>
+        <v>218.505</v>
       </c>
       <c r="M2" t="n">
-        <v>381.756</v>
+        <v>255.927</v>
       </c>
       <c r="N2" t="n">
-        <v>423.336</v>
+        <v>378.9189292929304</v>
       </c>
       <c r="O2" t="n">
-        <v>453.0359999999999</v>
+        <v>408.6189292929304</v>
       </c>
       <c r="P2" t="n">
-        <v>478.578</v>
+        <v>557.1189292929304</v>
       </c>
       <c r="Q2" t="n">
-        <v>499.962</v>
+        <v>578.5029292929304</v>
       </c>
       <c r="R2" t="n">
-        <v>548.373</v>
+        <v>578.7009292929304</v>
       </c>
       <c r="S2" t="n">
-        <v>599.2929292929305</v>
+        <v>585.8289292929304</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2792,22 +3042,22 @@
         <v>241.176</v>
       </c>
       <c r="L3" t="n">
-        <v>301.9924848484852</v>
+        <v>301.764</v>
       </c>
       <c r="M3" t="n">
-        <v>346.1464848484852</v>
+        <v>345.918</v>
       </c>
       <c r="N3" t="n">
-        <v>374.2624848484852</v>
+        <v>374.034</v>
       </c>
       <c r="O3" t="n">
-        <v>421.3864848484852</v>
+        <v>421.158</v>
       </c>
       <c r="P3" t="n">
-        <v>426.7324848484852</v>
+        <v>426.504</v>
       </c>
       <c r="Q3" t="n">
-        <v>434.6524848484852</v>
+        <v>434.424</v>
       </c>
       <c r="R3" t="n">
         <v>454.8484848484852</v>
@@ -2863,28 +3113,28 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>120</v>
+        <v>126.732</v>
       </c>
       <c r="K4" t="n">
-        <v>146.928</v>
+        <v>153.66</v>
       </c>
       <c r="L4" t="n">
-        <v>194.052</v>
+        <v>200.784</v>
       </c>
       <c r="M4" t="n">
-        <v>224.742</v>
+        <v>231.474</v>
       </c>
       <c r="N4" t="n">
-        <v>278.598</v>
+        <v>285.33</v>
       </c>
       <c r="O4" t="n">
-        <v>325.722</v>
+        <v>332.454</v>
       </c>
       <c r="P4" t="n">
-        <v>352.65</v>
+        <v>342.7332929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>362.9292929292918</v>
+        <v>356.1972929292918</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3369,13 +3619,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>82.234272013061</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>45.3</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -3387,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3675,10 +3925,10 @@
         <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -3699,13 +3949,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>48.7</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>28.4</v>
@@ -3782,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.2307935455569061</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3996,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -4032,10 +4282,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>44.23427201306104</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4088,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2307927762477035</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -4109,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9.6</v>
+        <v>28</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>

--- a/model/Output Files/Year 4.xlsx
+++ b/model/Output Files/Year 4.xlsx
@@ -15,12 +15,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 5" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -528,19 +526,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>120.0099999999948</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>120.0099999999948</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>185.3039999985004</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -567,13 +565,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>120.0099999999948</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>120.0099999999948</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>240.000000109564</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -582,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>124.6999999969511</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -591,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>239.9999998950456</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7479999999300975</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3">
@@ -656,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.746282123349374e-07</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -682,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>226.4</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -733,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.124149231614094e-09</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -757,396 +755,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Y4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>80569.32880399616</v>
-      </c>
-      <c r="C2" t="n">
-        <v>35800</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15428.47172258155</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9095</v>
-      </c>
-      <c r="F2" t="n">
-        <v>13336.5731576407</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1203,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>10173</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +824,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179</v>
+        <v>5090</v>
       </c>
       <c r="C4" t="n">
-        <v>189</v>
+        <v>5100</v>
       </c>
       <c r="D4" t="n">
-        <v>179</v>
+        <v>5313</v>
       </c>
     </row>
   </sheetData>
@@ -1230,13 +838,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1296,49 +904,49 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="L2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="O2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="P2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3">
@@ -1346,49 +954,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="F3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>34</v>
+        <v>484</v>
       </c>
       <c r="H3" t="n">
-        <v>34</v>
+        <v>487</v>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="K3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="L3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="M3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="N3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="O3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4">
@@ -1396,149 +1004,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1639,76 +1147,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>-1211.51</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>-1136.26</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>-1061.81</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>-996.17</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>-977.63</v>
       </c>
       <c r="G2" t="n">
-        <v>22.1</v>
+        <v>-866.895</v>
       </c>
       <c r="H2" t="n">
-        <v>50.7</v>
+        <v>-775.78</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>-566.6700000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>27.3</v>
+        <v>-390.5800000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>80.59999999999999</v>
+        <v>-468.3050000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>114.4</v>
+        <v>-559.8699999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>128.7</v>
+        <v>-699.625</v>
       </c>
       <c r="N2" t="n">
-        <v>143</v>
+        <v>-920.71</v>
       </c>
       <c r="O2" t="n">
-        <v>109.2</v>
+        <v>-1118.445</v>
       </c>
       <c r="P2" t="n">
-        <v>94.90000000000001</v>
+        <v>-1160.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.59999999999999</v>
+        <v>-1156.31</v>
       </c>
       <c r="R2" t="n">
-        <v>19.5</v>
+        <v>-1141.46</v>
       </c>
       <c r="S2" t="n">
-        <v>-41.60000000000001</v>
+        <v>-1144.01</v>
       </c>
       <c r="T2" t="n">
-        <v>-88.40000000000001</v>
+        <v>-1289.76</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>-1379.2</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>-1346.75</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>-1297.99</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>-1140.13</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>-1064.46</v>
       </c>
     </row>
     <row r="3">
@@ -1716,76 +1224,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>-879.3</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>-811</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>-743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-620.6500000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-335.1400000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>27.27000000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>193.87</v>
       </c>
       <c r="I3" t="n">
-        <v>83.2</v>
+        <v>379.3449999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>124.8</v>
+        <v>534.7799999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>166.4</v>
+        <v>483.6749999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>187.2</v>
+        <v>452.2999999999998</v>
       </c>
       <c r="M3" t="n">
-        <v>149.5</v>
+        <v>367.57</v>
       </c>
       <c r="N3" t="n">
-        <v>101.4</v>
+        <v>149.0700000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>145.6</v>
+        <v>-161.885</v>
       </c>
       <c r="P3" t="n">
-        <v>32.49999999999999</v>
+        <v>-461.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>39</v>
+        <v>-820.285</v>
       </c>
       <c r="R3" t="n">
-        <v>62.4</v>
+        <v>-932.5600000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>-62.40000000000001</v>
+        <v>-950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>-1103.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>-1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-1173</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>-1129.8</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-977.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>-906</v>
       </c>
     </row>
     <row r="4">
@@ -1793,76 +1301,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>-1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>-1086.22</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-966.9799999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-861.235</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>-428.7049999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-144.71</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.98000000000013</v>
       </c>
       <c r="J4" t="n">
-        <v>20.8</v>
+        <v>278.04</v>
       </c>
       <c r="K4" t="n">
-        <v>83.2</v>
+        <v>230.71</v>
       </c>
       <c r="L4" t="n">
-        <v>145.6</v>
+        <v>187.8149999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>107.9</v>
+        <v>79.84499999999994</v>
       </c>
       <c r="N4" t="n">
-        <v>166.4</v>
+        <v>-180.765</v>
       </c>
       <c r="O4" t="n">
-        <v>145.6</v>
+        <v>-573.1600000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>83.2</v>
+        <v>-991.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.6</v>
+        <v>-1263.34</v>
       </c>
       <c r="R4" t="n">
-        <v>20.8</v>
+        <v>-1258.22</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>-1269.11</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>-1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>-1520.98</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>-1498.26</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>-1456.45</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>-1236.82</v>
       </c>
     </row>
   </sheetData>
@@ -1978,46 +1486,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>681.5910000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1912.524000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>3153.630000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>3926.778000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>4038.681000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>3560.55</v>
       </c>
       <c r="M2" t="n">
-        <v>9</v>
+        <v>2675.498999998031</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>1607.334000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>9</v>
+        <v>640.8990000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>20.346</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2049,49 +1557,49 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>305.1900000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1586.988000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>834.7599848938914</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>646.8</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>5772</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>798</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>798</v>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>5856</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>756</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>739.2</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>672.0000000029722</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>600.2070000000001</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>40.69199999998591</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2129,43 +1637,43 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>457.7850000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>677.88</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1801.004999996384</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5924.04</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>5950.919999999998</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>978.6</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>980.2800000042067</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>6039.119999999998</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>940.8</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>1115.083484845631</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>1018.259999999997</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2305,31 +1813,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1136.744000000503</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2578.352484841155</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3536.198000000801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3570.376000000788</v>
       </c>
       <c r="L2" t="n">
-        <v>122.4</v>
+        <v>3000.679999998785</v>
       </c>
       <c r="M2" t="n">
-        <v>137.7</v>
+        <v>1975.874000000785</v>
       </c>
       <c r="N2" t="n">
-        <v>153</v>
+        <v>686.6240000014533</v>
       </c>
       <c r="O2" t="n">
-        <v>118.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>79.60909090909101</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -2376,34 +1884,34 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1124.988000000003</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>204.7599848938914</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>5100</v>
       </c>
       <c r="K3" t="n">
-        <v>128.457157430958</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -2412,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>65.40000000072177</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2424,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>8.885632269084454e-06</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -2459,37 +1967,37 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>995.4449999963865</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>5100</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>152.6000000011409</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="N4" t="n">
-        <v>73.78312416993339</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>189.4034848456383</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2498,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>5.424953997135162e-08</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -2611,19 +2119,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>1211.509999999997</v>
       </c>
       <c r="C2" t="n">
-        <v>19.50000000004657</v>
+        <v>896.2600000002534</v>
       </c>
       <c r="D2" t="n">
-        <v>12.99999999995343</v>
+        <v>821.8100000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>12.99999999995343</v>
+        <v>876.1600000002363</v>
       </c>
       <c r="F2" t="n">
-        <v>12.99999999995343</v>
+        <v>857.6200000000052</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2650,37 +2158,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>477.5459999969266</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1020.534000000005</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1036.3</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>901.4599998904361</v>
       </c>
       <c r="S2" t="n">
-        <v>38.60000000000001</v>
+        <v>1144.01</v>
       </c>
       <c r="T2" t="n">
-        <v>86.40000000000001</v>
+        <v>1289.76</v>
       </c>
       <c r="U2" t="n">
-        <v>117.0000000000466</v>
+        <v>1254.500000003049</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>1346.75</v>
       </c>
       <c r="W2" t="n">
-        <v>77.99999999995343</v>
+        <v>1297.989999999884</v>
       </c>
       <c r="X2" t="n">
-        <v>52.00000000004657</v>
+        <v>900.1300001049545</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.25200000004663</v>
+        <v>824.4599999999982</v>
       </c>
     </row>
     <row r="3">
@@ -2688,22 +2196,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>879.3</v>
       </c>
       <c r="C3" t="n">
-        <v>19.50000000004657</v>
+        <v>811</v>
       </c>
       <c r="D3" t="n">
-        <v>12.99999999995343</v>
+        <v>743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>315.4599999960792</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.50000000004657</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2733,31 +2241,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>220.0779999984346</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>891.8680000000141</v>
       </c>
       <c r="S3" t="n">
-        <v>60.39999999881256</v>
+        <v>950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>1103.499999825372</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1173.000008885632</v>
       </c>
       <c r="W3" t="n">
-        <v>77.99999999995343</v>
+        <v>1129.8</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>977.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>38.99999999997672</v>
+        <v>906</v>
       </c>
     </row>
     <row r="4">
@@ -2765,22 +2273,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>19.50000000004657</v>
+        <v>846.2199999976489</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>795.1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>726.9799999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>403.45</v>
       </c>
       <c r="G4" t="n">
-        <v>19.50000000004657</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2795,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-2.540000987549623e-09</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -2810,31 +2318,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1263.34</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1258.219999999997</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1269.109999999884</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>1424.589999999091</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1520.98000005425</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1498.26</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1456.45</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1306.929999999935</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.99999999997672</v>
+        <v>1236.819999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2443,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>210.290909090815</v>
+        <v>7566.717171717203</v>
       </c>
       <c r="C2" t="n">
-        <v>190.5939393937983</v>
+        <v>6661.404040403816</v>
       </c>
       <c r="D2" t="n">
-        <v>177.4626262625322</v>
+        <v>5831.292929292705</v>
       </c>
       <c r="E2" t="n">
-        <v>164.3313131312661</v>
+        <v>4946.282828282365</v>
       </c>
       <c r="F2" t="n">
-        <v>151.2</v>
+        <v>4080</v>
       </c>
       <c r="G2" t="n">
-        <v>151.2</v>
+        <v>4080</v>
       </c>
       <c r="H2" t="n">
-        <v>151.2</v>
+        <v>5205.376560000029</v>
       </c>
       <c r="I2" t="n">
-        <v>151.2</v>
+        <v>7757.945519992772</v>
       </c>
       <c r="J2" t="n">
-        <v>151.2</v>
+        <v>11258.78153999357</v>
       </c>
       <c r="K2" t="n">
-        <v>151.2</v>
+        <v>14793.45377999435</v>
       </c>
       <c r="L2" t="n">
-        <v>272.376</v>
+        <v>17764.12697999314</v>
       </c>
       <c r="M2" t="n">
-        <v>408.699</v>
+        <v>19720.24223999392</v>
       </c>
       <c r="N2" t="n">
-        <v>560.169</v>
+        <v>20399.99999999536</v>
       </c>
       <c r="O2" t="n">
-        <v>677.1869999999999</v>
+        <v>19917.63030302876</v>
       </c>
       <c r="P2" t="n">
-        <v>756</v>
+        <v>18886.78787878633</v>
       </c>
       <c r="Q2" t="n">
-        <v>756</v>
+        <v>17840.02020201865</v>
       </c>
       <c r="R2" t="n">
-        <v>756</v>
+        <v>16929.45454556367</v>
       </c>
       <c r="S2" t="n">
-        <v>717.010101010101</v>
+        <v>15773.88888899801</v>
       </c>
       <c r="T2" t="n">
-        <v>629.7373737373738</v>
+        <v>14471.10101021013</v>
       </c>
       <c r="U2" t="n">
-        <v>511.5555555555086</v>
+        <v>13203.92929303533</v>
       </c>
       <c r="V2" t="n">
-        <v>413.0707070706601</v>
+        <v>11843.5757576818</v>
       </c>
       <c r="W2" t="n">
-        <v>334.2828282828283</v>
+        <v>10532.47474758079</v>
       </c>
       <c r="X2" t="n">
-        <v>281.7575757575288</v>
+        <v>9623.252525252554</v>
       </c>
       <c r="Y2" t="n">
-        <v>243.1191919190979</v>
+        <v>8790.464646464676</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2520,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>203.7252525252996</v>
+        <v>5968.848484843013</v>
       </c>
       <c r="C3" t="n">
-        <v>184.0282828282828</v>
+        <v>5149.656565651101</v>
       </c>
       <c r="D3" t="n">
-        <v>170.8969696970167</v>
+        <v>4398.646464641</v>
       </c>
       <c r="E3" t="n">
-        <v>170.8969696970167</v>
+        <v>4080</v>
       </c>
       <c r="F3" t="n">
-        <v>170.8969696970167</v>
+        <v>5193.738119998499</v>
       </c>
       <c r="G3" t="n">
-        <v>151.2</v>
+        <v>5193.738119998499</v>
       </c>
       <c r="H3" t="n">
-        <v>151.2</v>
+        <v>5396.450505043452</v>
       </c>
       <c r="I3" t="n">
-        <v>155.16</v>
+        <v>5396.450505043452</v>
       </c>
       <c r="J3" t="n">
-        <v>161.1</v>
+        <v>10445.45050504345</v>
       </c>
       <c r="K3" t="n">
-        <v>288.2725858566484</v>
+        <v>10445.45050504345</v>
       </c>
       <c r="L3" t="n">
-        <v>475.3825858566484</v>
+        <v>10445.45050504345</v>
       </c>
       <c r="M3" t="n">
-        <v>475.3825858566484</v>
+        <v>15494.45050504345</v>
       </c>
       <c r="N3" t="n">
-        <v>475.3825858566484</v>
+        <v>15494.45050504345</v>
       </c>
       <c r="O3" t="n">
-        <v>482.3125858566484</v>
+        <v>15494.45050504345</v>
       </c>
       <c r="P3" t="n">
-        <v>482.3125858566484</v>
+        <v>15494.45050504448</v>
       </c>
       <c r="Q3" t="n">
-        <v>482.3125858566484</v>
+        <v>15272.14949494609</v>
       </c>
       <c r="R3" t="n">
-        <v>547.0585858573629</v>
+        <v>14371.2727272693</v>
       </c>
       <c r="S3" t="n">
-        <v>486.0484848484614</v>
+        <v>13410.86868686436</v>
       </c>
       <c r="T3" t="n">
-        <v>354.73535353533</v>
+        <v>12296.22222239429</v>
       </c>
       <c r="U3" t="n">
-        <v>354.73535353533</v>
+        <v>11085.61616178823</v>
       </c>
       <c r="V3" t="n">
-        <v>354.73535353533</v>
+        <v>9900.767676761137</v>
       </c>
       <c r="W3" t="n">
-        <v>275.9474747474983</v>
+        <v>8759.55555555006</v>
       </c>
       <c r="X3" t="n">
-        <v>275.9474747474983</v>
+        <v>7772.181818176323</v>
       </c>
       <c r="Y3" t="n">
-        <v>236.5535353535824</v>
+        <v>6857.030303024831</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2597,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>190.5939393940335</v>
+        <v>6879.747474744639</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8969696970167</v>
+        <v>6024.979797979337</v>
       </c>
       <c r="D4" t="n">
-        <v>170.8969696970167</v>
+        <v>5221.848484848028</v>
       </c>
       <c r="E4" t="n">
-        <v>170.8969696970167</v>
+        <v>4487.525252525323</v>
       </c>
       <c r="F4" t="n">
-        <v>170.8969696970167</v>
+        <v>4080</v>
       </c>
       <c r="G4" t="n">
-        <v>151.2</v>
+        <v>4080</v>
       </c>
       <c r="H4" t="n">
-        <v>151.2</v>
+        <v>5065.490549996422</v>
       </c>
       <c r="I4" t="n">
-        <v>151.2</v>
+        <v>10114.49054999575</v>
       </c>
       <c r="J4" t="n">
-        <v>152.19</v>
+        <v>15163.49054999575</v>
       </c>
       <c r="K4" t="n">
-        <v>156.15</v>
+        <v>15163.49054999575</v>
       </c>
       <c r="L4" t="n">
-        <v>307.2240000011295</v>
+        <v>15163.49055</v>
       </c>
       <c r="M4" t="n">
-        <v>307.2240000011295</v>
+        <v>20212.49055</v>
       </c>
       <c r="N4" t="n">
-        <v>380.2692929293635</v>
+        <v>20212.49055</v>
       </c>
       <c r="O4" t="n">
-        <v>387.1992929293635</v>
+        <v>20399.99999999718</v>
       </c>
       <c r="P4" t="n">
-        <v>391.1592929293635</v>
+        <v>20399.99999999718</v>
       </c>
       <c r="Q4" t="n">
-        <v>393.1392929293635</v>
+        <v>19123.89898989617</v>
       </c>
       <c r="R4" t="n">
-        <v>394.1292929293635</v>
+        <v>17852.96969696688</v>
       </c>
       <c r="S4" t="n">
-        <v>394.1292929293635</v>
+        <v>16571.04040403759</v>
       </c>
       <c r="T4" t="n">
-        <v>262.8161616162322</v>
+        <v>15132.0606060606</v>
       </c>
       <c r="U4" t="n">
-        <v>262.8161616162322</v>
+        <v>13595.71717171608</v>
       </c>
       <c r="V4" t="n">
-        <v>262.8161616162322</v>
+        <v>12082.32323232214</v>
       </c>
       <c r="W4" t="n">
-        <v>262.8161616162322</v>
+        <v>10611.16161616052</v>
       </c>
       <c r="X4" t="n">
-        <v>262.8161616162322</v>
+        <v>9291.030303028372</v>
       </c>
       <c r="Y4" t="n">
-        <v>223.4222222223163</v>
+        <v>8041.717171714336</v>
       </c>
     </row>
     <row r="5">
@@ -6835,37 +6343,37 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>26.2</v>
+        <v>137.7624848391006</v>
       </c>
       <c r="J2" t="n">
-        <v>33</v>
+        <v>311.1</v>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>349.095000000787</v>
       </c>
       <c r="L2" t="n">
-        <v>108.7999999996275</v>
+        <v>268.7700000011828</v>
       </c>
       <c r="M2" t="n">
-        <v>122.3999999995809</v>
+        <v>116.5350000007102</v>
       </c>
       <c r="N2" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>112.2000000001863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>93.30909090883492</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>28.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -6921,28 +6429,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>120.457157430958</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>145.7999999998137</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>23.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -7001,13 +6509,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>65.78312416993339</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -7156,43 +6664,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.399999999743886</v>
+        <v>6.360000001499429</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>49.0400000005025</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>100.0800000020536</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>130.7600000002421</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="L2" t="n">
-        <v>7.200000000186265</v>
+        <v>118.8799999975992</v>
       </c>
       <c r="M2" t="n">
-        <v>8.100000000209548</v>
+        <v>84.32000000204425</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>42.56000000145286</v>
       </c>
       <c r="O2" t="n">
-        <v>7.799999999557599</v>
+        <v>4.800000003073364</v>
       </c>
       <c r="P2" t="n">
-        <v>6.900000000256114</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -7227,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.000000003376044</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -7248,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -7263,13 +6771,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>11.6000000013737</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4000000011874363</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -7325,7 +6833,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -7378,7 +6886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7387,77 +6895,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -7465,230 +6926,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3374651.047422656</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1018000</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>440008.6802285647</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>186095</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.400000000256114</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>19.20000000018626</v>
-      </c>
-      <c r="M2" t="n">
-        <v>21.60000000020955</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20.40000000025611</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>13</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>25.20000000018626</v>
-      </c>
-      <c r="M3" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>8.400000000721775</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>19.60000000114087</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
+        <v>1139965.152995829</v>
       </c>
     </row>
   </sheetData>

--- a/model/Output Files/Year 4.xlsx
+++ b/model/Output Files/Year 4.xlsx
@@ -15,10 +15,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -529,16 +530,16 @@
         <v>240</v>
       </c>
       <c r="D2" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>120.0099999999948</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>120.0099999999948</v>
       </c>
       <c r="G2" t="n">
-        <v>185.3039999985004</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -565,34 +566,34 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>120.009999999995</v>
+      </c>
+      <c r="R2" t="n">
+        <v>120.0099999966042</v>
+      </c>
+      <c r="S2" t="n">
+        <v>240</v>
+      </c>
+      <c r="T2" t="n">
+        <v>240</v>
+      </c>
+      <c r="U2" t="n">
+        <v>160.7883227900295</v>
+      </c>
+      <c r="V2" t="n">
         <v>120.0099999999948</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="W2" t="n">
         <v>120.0099999999948</v>
       </c>
-      <c r="R2" t="n">
-        <v>240.000000109564</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>124.6999999969511</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>239.9999998950456</v>
+        <v>120.0099999999949</v>
       </c>
       <c r="Y2" t="n">
-        <v>240</v>
+        <v>120.0099999966042</v>
       </c>
     </row>
     <row r="3">
@@ -654,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.746282123349374e-07</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -677,16 +678,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>120.0099999999948</v>
       </c>
       <c r="C4" t="n">
-        <v>240</v>
+        <v>1.054563700113295e-09</v>
       </c>
       <c r="D4" t="n">
-        <v>226.4</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -728,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.8949999999868</v>
       </c>
       <c r="T4" t="n">
-        <v>1.124149231614094e-09</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -740,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>120.0099999999964</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -755,6 +756,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3384597.075549113</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1035400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>430566.1913849492</v>
+      </c>
+      <c r="E2" t="n">
+        <v>187215</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1140537.272025586</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -811,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10173</v>
+        <v>10206</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -824,13 +891,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5090</v>
+        <v>5177</v>
       </c>
       <c r="C4" t="n">
-        <v>5100</v>
+        <v>5225</v>
       </c>
       <c r="D4" t="n">
-        <v>5313</v>
+        <v>5289</v>
       </c>
     </row>
   </sheetData>
@@ -838,13 +905,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -969,16 +1036,16 @@
         <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="H3" t="n">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="I3" t="n">
         <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K3" t="n">
         <v>510</v>
@@ -1019,16 +1086,16 @@
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" t="n">
         <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
         <v>40</v>
@@ -1047,6 +1114,56 @@
       </c>
       <c r="P4" t="n">
         <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1156,43 +1273,43 @@
         <v>-1061.81</v>
       </c>
       <c r="E2" t="n">
-        <v>-996.17</v>
+        <v>-1031.17</v>
       </c>
       <c r="F2" t="n">
         <v>-977.63</v>
       </c>
       <c r="G2" t="n">
-        <v>-866.895</v>
+        <v>-858.895</v>
       </c>
       <c r="H2" t="n">
-        <v>-775.78</v>
+        <v>-752.78</v>
       </c>
       <c r="I2" t="n">
-        <v>-566.6700000000001</v>
+        <v>-528.6700000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>-390.5800000000002</v>
+        <v>-343.5800000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>-468.3050000000001</v>
+        <v>-420.3050000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>-559.8699999999999</v>
+        <v>-516.8699999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>-699.625</v>
+        <v>-667.625</v>
       </c>
       <c r="N2" t="n">
-        <v>-920.71</v>
+        <v>-901.71</v>
       </c>
       <c r="O2" t="n">
-        <v>-1118.445</v>
+        <v>-1111.445</v>
       </c>
       <c r="P2" t="n">
         <v>-1160.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1156.31</v>
+        <v>-1191.31</v>
       </c>
       <c r="R2" t="n">
         <v>-1141.46</v>
@@ -1233,43 +1350,43 @@
         <v>-743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>-620.6500000000001</v>
+        <v>-651.6500000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>-335.1400000000001</v>
+        <v>-316.1400000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>27.27000000000005</v>
+        <v>69.27000000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>193.87</v>
+        <v>254.87</v>
       </c>
       <c r="I3" t="n">
-        <v>379.3449999999998</v>
+        <v>454.3449999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>534.7799999999999</v>
+        <v>618.7799999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>483.6749999999999</v>
+        <v>570.675</v>
       </c>
       <c r="L3" t="n">
-        <v>452.2999999999998</v>
+        <v>538.2999999999998</v>
       </c>
       <c r="M3" t="n">
-        <v>367.57</v>
+        <v>445.57</v>
       </c>
       <c r="N3" t="n">
-        <v>149.0700000000001</v>
+        <v>215.0700000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>-161.885</v>
+        <v>-112.885</v>
       </c>
       <c r="P3" t="n">
-        <v>-461.76</v>
+        <v>-434.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>-820.285</v>
+        <v>-847.285</v>
       </c>
       <c r="R3" t="n">
         <v>-932.5600000000001</v>
@@ -1310,43 +1427,43 @@
         <v>-1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>-966.9799999999999</v>
+        <v>-1001.98</v>
       </c>
       <c r="F4" t="n">
-        <v>-861.235</v>
+        <v>-856.235</v>
       </c>
       <c r="G4" t="n">
-        <v>-428.7049999999999</v>
+        <v>-396.7049999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>-144.71</v>
+        <v>-85.70999999999998</v>
       </c>
       <c r="I4" t="n">
-        <v>96.98000000000013</v>
+        <v>172.9800000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>278.04</v>
+        <v>364.04</v>
       </c>
       <c r="K4" t="n">
-        <v>230.71</v>
+        <v>320.71</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8149999999999</v>
+        <v>275.8149999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>79.84499999999994</v>
+        <v>158.8449999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>-180.765</v>
+        <v>-115.765</v>
       </c>
       <c r="O4" t="n">
-        <v>-573.1600000000001</v>
+        <v>-530.1600000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>-991.62</v>
+        <v>-976.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1263.34</v>
+        <v>-1298.34</v>
       </c>
       <c r="R4" t="n">
         <v>-1258.22</v>
@@ -1486,34 +1603,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>681.5910000000001</v>
+        <v>683.8020000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1912.524000000001</v>
+        <v>1918.728000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>3153.630000000001</v>
+        <v>3163.860000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>3926.778000000001</v>
+        <v>3939.516000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>4038.681000000001</v>
+        <v>4051.782000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>3560.55</v>
+        <v>3572.1</v>
       </c>
       <c r="M2" t="n">
-        <v>2675.498999998031</v>
+        <v>2684.178000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>1607.334000000001</v>
+        <v>1612.548</v>
       </c>
       <c r="O2" t="n">
-        <v>640.8990000000001</v>
+        <v>642.9780000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>20.346</v>
+        <v>20.41200000000026</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1557,31 +1674,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>305.1900000000001</v>
+        <v>306.1799999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>1586.988000000001</v>
+        <v>462</v>
       </c>
       <c r="G3" t="n">
-        <v>504</v>
+        <v>1639.794306703381</v>
       </c>
       <c r="H3" t="n">
-        <v>834.7599848938914</v>
+        <v>630</v>
       </c>
       <c r="I3" t="n">
-        <v>646.8</v>
+        <v>5871.8</v>
       </c>
       <c r="J3" t="n">
-        <v>5772</v>
+        <v>672</v>
       </c>
       <c r="K3" t="n">
-        <v>798</v>
+        <v>6023</v>
       </c>
       <c r="L3" t="n">
         <v>798</v>
       </c>
       <c r="M3" t="n">
-        <v>5856</v>
+        <v>756</v>
       </c>
       <c r="N3" t="n">
         <v>756</v>
@@ -1590,13 +1707,13 @@
         <v>739.2</v>
       </c>
       <c r="P3" t="n">
-        <v>672.0000000029722</v>
+        <v>672</v>
       </c>
       <c r="Q3" t="n">
-        <v>600.2070000000001</v>
+        <v>602.154</v>
       </c>
       <c r="R3" t="n">
-        <v>40.69199999998591</v>
+        <v>40.82400000000001</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1637,37 +1754,37 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>457.7850000000001</v>
+        <v>459.2700000000001</v>
       </c>
       <c r="G4" t="n">
         <v>677.88</v>
       </c>
       <c r="H4" t="n">
-        <v>1801.004999996384</v>
+        <v>805.5599999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>5924.04</v>
+        <v>824.0400000004738</v>
       </c>
       <c r="J4" t="n">
-        <v>5950.919999999998</v>
+        <v>4622.976888888892</v>
       </c>
       <c r="K4" t="n">
-        <v>978.6</v>
+        <v>6203.6</v>
       </c>
       <c r="L4" t="n">
-        <v>980.2800000042067</v>
+        <v>980.2800000010419</v>
       </c>
       <c r="M4" t="n">
-        <v>6039.119999999998</v>
+        <v>6164.12</v>
       </c>
       <c r="N4" t="n">
         <v>940.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1115.083484845631</v>
+        <v>3592.512</v>
       </c>
       <c r="P4" t="n">
-        <v>1018.259999999997</v>
+        <v>1018.26</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1813,25 +1930,25 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1136.744000000503</v>
+        <v>1165.948000000503</v>
       </c>
       <c r="I2" t="n">
-        <v>2578.352484841155</v>
+        <v>2635.190000003213</v>
       </c>
       <c r="J2" t="n">
-        <v>3536.198000000801</v>
+        <v>3595.935999999459</v>
       </c>
       <c r="K2" t="n">
-        <v>3570.376000000788</v>
+        <v>3631.477000000787</v>
       </c>
       <c r="L2" t="n">
-        <v>3000.679999998785</v>
+        <v>3055.23000000142</v>
       </c>
       <c r="M2" t="n">
-        <v>1975.874000000785</v>
+        <v>2016.553000003577</v>
       </c>
       <c r="N2" t="n">
-        <v>686.6240000014533</v>
+        <v>710.8380000014532</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1846,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2.793967723846436e-09</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1884,28 +2001,28 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1124.988000000003</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1135.794306703258</v>
       </c>
       <c r="H3" t="n">
-        <v>204.7599848938914</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5225</v>
       </c>
       <c r="J3" t="n">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5225</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -1932,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>8.885632269084454e-06</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -1967,28 +2084,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>995.4449999963865</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5100</v>
+        <v>3772.056888888891</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5225</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.041784840212627e-09</v>
       </c>
       <c r="M4" t="n">
-        <v>5100</v>
+        <v>5225</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>189.4034848456383</v>
+        <v>2666.831999999999</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2006,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>5.424953997135162e-08</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -2119,22 +2236,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1211.509999999997</v>
+        <v>1211.510000000256</v>
       </c>
       <c r="C2" t="n">
-        <v>896.2600000002534</v>
+        <v>896.2599999998835</v>
       </c>
       <c r="D2" t="n">
-        <v>821.8100000000001</v>
+        <v>1061.81</v>
       </c>
       <c r="E2" t="n">
-        <v>876.1600000002363</v>
+        <v>1031.17</v>
       </c>
       <c r="F2" t="n">
         <v>857.6200000000052</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>175.0929999985005</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2158,37 +2275,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>477.5459999969266</v>
+        <v>468.4669999969497</v>
       </c>
       <c r="P2" t="n">
-        <v>1020.534000000005</v>
+        <v>1140.478</v>
       </c>
       <c r="Q2" t="n">
-        <v>1036.3</v>
+        <v>1071.3</v>
       </c>
       <c r="R2" t="n">
-        <v>901.4599998904361</v>
+        <v>1021.450000003396</v>
       </c>
       <c r="S2" t="n">
-        <v>1144.01</v>
+        <v>904.010000002794</v>
       </c>
       <c r="T2" t="n">
-        <v>1289.76</v>
+        <v>1049.759999999942</v>
       </c>
       <c r="U2" t="n">
-        <v>1254.500000003049</v>
+        <v>1218.411677209971</v>
       </c>
       <c r="V2" t="n">
-        <v>1346.75</v>
+        <v>1226.740000000005</v>
       </c>
       <c r="W2" t="n">
-        <v>1297.989999999884</v>
+        <v>1177.980000000005</v>
       </c>
       <c r="X2" t="n">
-        <v>900.1300001049545</v>
+        <v>1020.120000000005</v>
       </c>
       <c r="Y2" t="n">
-        <v>824.4599999999982</v>
+        <v>944.4500000033958</v>
       </c>
     </row>
     <row r="3">
@@ -2205,7 +2322,7 @@
         <v>743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>315.4599999960792</v>
+        <v>345.4700000000003</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2241,22 +2358,22 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>220.0779999984346</v>
+        <v>245.1310000003462</v>
       </c>
       <c r="R3" t="n">
-        <v>891.8680000000141</v>
+        <v>891.7359999996352</v>
       </c>
       <c r="S3" t="n">
         <v>950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1103.499999825372</v>
+        <v>1103.5</v>
       </c>
       <c r="U3" t="n">
         <v>1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1173.000008885632</v>
+        <v>1173</v>
       </c>
       <c r="W3" t="n">
         <v>1129.8</v>
@@ -2273,19 +2390,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1150.35</v>
+        <v>1030.340000000005</v>
       </c>
       <c r="C4" t="n">
-        <v>846.2199999976489</v>
+        <v>1086.22</v>
       </c>
       <c r="D4" t="n">
-        <v>795.1</v>
+        <v>1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>726.9799999999999</v>
+        <v>1001.98</v>
       </c>
       <c r="F4" t="n">
-        <v>403.45</v>
+        <v>396.9649999994017</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2303,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-2.540000987549623e-09</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -2318,31 +2435,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1263.34</v>
+        <v>1298.34</v>
       </c>
       <c r="R4" t="n">
-        <v>1258.219999999997</v>
+        <v>1258.220000000011</v>
       </c>
       <c r="S4" t="n">
-        <v>1269.109999999884</v>
+        <v>1135.215000000014</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.589999999091</v>
+        <v>1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>1520.98000005425</v>
+        <v>1520.98</v>
       </c>
       <c r="V4" t="n">
-        <v>1498.26</v>
+        <v>1498.259999999883</v>
       </c>
       <c r="W4" t="n">
-        <v>1456.45</v>
+        <v>1336.440000000003</v>
       </c>
       <c r="X4" t="n">
-        <v>1306.929999999935</v>
+        <v>1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>1236.819999999999</v>
+        <v>1236.819999999942</v>
       </c>
     </row>
   </sheetData>
@@ -2443,76 +2560,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7566.717171717203</v>
+        <v>8242.578787876781</v>
       </c>
       <c r="C2" t="n">
-        <v>6661.404040403816</v>
+        <v>7337.265656563709</v>
       </c>
       <c r="D2" t="n">
-        <v>5831.292929292705</v>
+        <v>6264.730303028356</v>
       </c>
       <c r="E2" t="n">
-        <v>4946.282828282365</v>
+        <v>5223.144444440361</v>
       </c>
       <c r="F2" t="n">
-        <v>4080</v>
+        <v>4356.86161615825</v>
       </c>
       <c r="G2" t="n">
-        <v>4080</v>
+        <v>4180</v>
       </c>
       <c r="H2" t="n">
-        <v>5205.376560000029</v>
+        <v>5334.288519999998</v>
       </c>
       <c r="I2" t="n">
-        <v>7757.945519992772</v>
+        <v>7943.12662000318</v>
       </c>
       <c r="J2" t="n">
-        <v>11258.78153999357</v>
+        <v>11503.10326000397</v>
       </c>
       <c r="K2" t="n">
-        <v>14793.45377999435</v>
+        <v>15098.26549000475</v>
       </c>
       <c r="L2" t="n">
-        <v>17764.12697999314</v>
+        <v>18122.94319000616</v>
       </c>
       <c r="M2" t="n">
-        <v>19720.24223999392</v>
+        <v>20119.3306600104</v>
       </c>
       <c r="N2" t="n">
-        <v>20399.99999999536</v>
+        <v>20823.06028001186</v>
       </c>
       <c r="O2" t="n">
-        <v>19917.63030302876</v>
+        <v>20349.86129011596</v>
       </c>
       <c r="P2" t="n">
-        <v>18886.78787878633</v>
+        <v>19197.86331031798</v>
       </c>
       <c r="Q2" t="n">
-        <v>17840.02020201865</v>
+        <v>18115.74209819676</v>
       </c>
       <c r="R2" t="n">
-        <v>16929.45454556367</v>
+        <v>17083.97442142565</v>
       </c>
       <c r="S2" t="n">
-        <v>15773.88888899801</v>
+        <v>16170.83300728418</v>
       </c>
       <c r="T2" t="n">
-        <v>14471.10101021013</v>
+        <v>15110.4693709206</v>
       </c>
       <c r="U2" t="n">
-        <v>13203.92929303533</v>
+        <v>13879.75050505194</v>
       </c>
       <c r="V2" t="n">
-        <v>11843.5757576818</v>
+        <v>12640.61919192063</v>
       </c>
       <c r="W2" t="n">
-        <v>10532.47474758079</v>
+        <v>11450.74040404183</v>
       </c>
       <c r="X2" t="n">
-        <v>9623.252525252554</v>
+        <v>10420.31616161759</v>
       </c>
       <c r="Y2" t="n">
-        <v>8790.464646464676</v>
+        <v>9466.326262624258</v>
       </c>
     </row>
     <row r="3">
@@ -2520,76 +2637,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5968.848484843013</v>
+        <v>6099.161616161617</v>
       </c>
       <c r="C3" t="n">
-        <v>5149.656565651101</v>
+        <v>5279.969696969698</v>
       </c>
       <c r="D3" t="n">
-        <v>4398.646464641</v>
+        <v>4528.959595959596</v>
       </c>
       <c r="E3" t="n">
-        <v>4080</v>
+        <v>4180</v>
       </c>
       <c r="F3" t="n">
-        <v>5193.738119998499</v>
+        <v>4180</v>
       </c>
       <c r="G3" t="n">
-        <v>5193.738119998499</v>
+        <v>5304.436363637245</v>
       </c>
       <c r="H3" t="n">
-        <v>5396.450505043452</v>
+        <v>5304.436363636347</v>
       </c>
       <c r="I3" t="n">
-        <v>5396.450505043452</v>
+        <v>10477.18636363635</v>
       </c>
       <c r="J3" t="n">
-        <v>10445.45050504345</v>
+        <v>10477.18636363635</v>
       </c>
       <c r="K3" t="n">
-        <v>10445.45050504345</v>
+        <v>15649.93636363635</v>
       </c>
       <c r="L3" t="n">
-        <v>10445.45050504345</v>
+        <v>15649.93636363635</v>
       </c>
       <c r="M3" t="n">
-        <v>15494.45050504345</v>
+        <v>15649.93636363635</v>
       </c>
       <c r="N3" t="n">
-        <v>15494.45050504345</v>
+        <v>15649.93636363635</v>
       </c>
       <c r="O3" t="n">
-        <v>15494.45050504345</v>
+        <v>15649.93636363635</v>
       </c>
       <c r="P3" t="n">
-        <v>15494.45050504448</v>
+        <v>15649.93636363635</v>
       </c>
       <c r="Q3" t="n">
-        <v>15272.14949494609</v>
+        <v>15402.32929292893</v>
       </c>
       <c r="R3" t="n">
-        <v>14371.2727272693</v>
+        <v>14501.58585858586</v>
       </c>
       <c r="S3" t="n">
-        <v>13410.86868686436</v>
+        <v>13541.18181818182</v>
       </c>
       <c r="T3" t="n">
-        <v>12296.22222239429</v>
+        <v>12426.53535353535</v>
       </c>
       <c r="U3" t="n">
-        <v>11085.61616178823</v>
+        <v>11215.92929292929</v>
       </c>
       <c r="V3" t="n">
-        <v>9900.767676761137</v>
+        <v>10031.08080808081</v>
       </c>
       <c r="W3" t="n">
-        <v>8759.55555555006</v>
+        <v>8889.868686868687</v>
       </c>
       <c r="X3" t="n">
-        <v>7772.181818176323</v>
+        <v>7902.49494949495</v>
       </c>
       <c r="Y3" t="n">
-        <v>6857.030303024831</v>
+        <v>6987.343434343435</v>
       </c>
     </row>
     <row r="4">
@@ -2597,76 +2714,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6879.747474744639</v>
+        <v>7722.085858585859</v>
       </c>
       <c r="C4" t="n">
-        <v>6024.979797979337</v>
+        <v>6624.893939393939</v>
       </c>
       <c r="D4" t="n">
-        <v>5221.848484848028</v>
+        <v>5593.075757573341</v>
       </c>
       <c r="E4" t="n">
-        <v>4487.525252525323</v>
+        <v>4580.974747474736</v>
       </c>
       <c r="F4" t="n">
-        <v>4080</v>
+        <v>4180</v>
       </c>
       <c r="G4" t="n">
-        <v>4080</v>
+        <v>4180</v>
       </c>
       <c r="H4" t="n">
-        <v>5065.490549996422</v>
+        <v>4180</v>
       </c>
       <c r="I4" t="n">
-        <v>10114.49054999575</v>
+        <v>4180</v>
       </c>
       <c r="J4" t="n">
-        <v>15163.49054999575</v>
+        <v>7914.336320000002</v>
       </c>
       <c r="K4" t="n">
-        <v>15163.49054999575</v>
+        <v>13087.08632</v>
       </c>
       <c r="L4" t="n">
-        <v>15163.49055</v>
+        <v>13087.08632000103</v>
       </c>
       <c r="M4" t="n">
-        <v>20212.49055</v>
+        <v>18259.83632</v>
       </c>
       <c r="N4" t="n">
-        <v>20212.49055</v>
+        <v>18259.83632</v>
       </c>
       <c r="O4" t="n">
-        <v>20399.99999999718</v>
+        <v>20900</v>
       </c>
       <c r="P4" t="n">
-        <v>20399.99999999718</v>
+        <v>20900</v>
       </c>
       <c r="Q4" t="n">
-        <v>19123.89898989617</v>
+        <v>19588.54545454546</v>
       </c>
       <c r="R4" t="n">
-        <v>17852.96969696688</v>
+        <v>18317.61616161616</v>
       </c>
       <c r="S4" t="n">
-        <v>16571.04040403759</v>
+        <v>17170.93434343436</v>
       </c>
       <c r="T4" t="n">
-        <v>15132.0606060606</v>
+        <v>15731.95454545455</v>
       </c>
       <c r="U4" t="n">
-        <v>13595.71717171608</v>
+        <v>14195.61111111111</v>
       </c>
       <c r="V4" t="n">
-        <v>12082.32323232214</v>
+        <v>12682.21717171717</v>
       </c>
       <c r="W4" t="n">
-        <v>10611.16161616052</v>
+        <v>11332.27777777778</v>
       </c>
       <c r="X4" t="n">
-        <v>9291.030303028372</v>
+        <v>10012.14646464646</v>
       </c>
       <c r="Y4" t="n">
-        <v>8041.717171714336</v>
+        <v>8762.833333333334</v>
       </c>
     </row>
     <row r="5">
@@ -6346,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>137.7624848391006</v>
+        <v>146.3700000011595</v>
       </c>
       <c r="J2" t="n">
         <v>311.1</v>
@@ -6358,7 +6475,7 @@
         <v>268.7700000011828</v>
       </c>
       <c r="M2" t="n">
-        <v>116.5350000007102</v>
+        <v>116.5350000022445</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -6667,7 +6784,7 @@
         <v>6.360000001499429</v>
       </c>
       <c r="H2" t="n">
-        <v>49.0400000005025</v>
+        <v>49.04000000050291</v>
       </c>
       <c r="I2" t="n">
         <v>100.0800000020536</v>
@@ -6679,13 +6796,13 @@
         <v>136</v>
       </c>
       <c r="L2" t="n">
-        <v>118.8799999975992</v>
+        <v>118.8800000002375</v>
       </c>
       <c r="M2" t="n">
-        <v>84.32000000204425</v>
+        <v>84.32000000203033</v>
       </c>
       <c r="N2" t="n">
-        <v>42.56000000145286</v>
+        <v>42.56000000000001</v>
       </c>
       <c r="O2" t="n">
         <v>4.800000003073364</v>
@@ -6735,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.000000003376044</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -6886,7 +7003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6895,30 +7012,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -6926,19 +7090,230 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3374651.047422656</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1018000</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>440008.6802285647</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>186095</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1139965.152995829</v>
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2" t="n">
+        <v>38</v>
+      </c>
+      <c r="J2" t="n">
+        <v>47</v>
+      </c>
+      <c r="K2" t="n">
+        <v>48</v>
+      </c>
+      <c r="L2" t="n">
+        <v>43</v>
+      </c>
+      <c r="M2" t="n">
+        <v>32</v>
+      </c>
+      <c r="N2" t="n">
+        <v>19</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
